--- a/biology/Botanique/Baobab_amoureux/Baobab_amoureux.xlsx
+++ b/biology/Botanique/Baobab_amoureux/Baobab_amoureux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le baobab amoureux est un arbre remarquable. Il se trouve dans la région de Morondava à Madagascar[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baobab amoureux est un arbre remarquable. Il se trouve dans la région de Morondava à Madagascar. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Madagascar et ses baobabs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le baobab amoureux appartient une espèce préservée, Adansonia fony ayant une grande longévité de 800 à 1 000 ans et pouvant atteindre 30 mètres de haut[2].
-C'est l'une des six espèces baobabs, seulement présents dans la grande île : Adansonia grandidieri, Adansonia madagascariensis, Adansonia perrieri, Adansonia rubrostipa (Adansonia fony), Adansonia za, Adansonia suarezensi[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baobab amoureux appartient une espèce préservée, Adansonia fony ayant une grande longévité de 800 à 1 000 ans et pouvant atteindre 30 mètres de haut.
+C'est l'une des six espèces baobabs, seulement présents dans la grande île : Adansonia grandidieri, Adansonia madagascariensis, Adansonia perrieri, Adansonia rubrostipa (Adansonia fony), Adansonia za, Adansonia suarezensi,.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Particularité du « baobab amoureux »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce spécimen présente deux troncs entrelacés tels deux amoureux inséparables, d'où son appellation « Baobab amoureux »[3].
-D'après le folklore local, ce baobab porterait chance aux couples qui viennent se promener dans l'allée des baobabs de Morondava[5]. 
-De nombreux touristes viennent à Madagascar pour pouvoir observer ce phénomène[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce spécimen présente deux troncs entrelacés tels deux amoureux inséparables, d'où son appellation « Baobab amoureux ».
+D'après le folklore local, ce baobab porterait chance aux couples qui viennent se promener dans l'allée des baobabs de Morondava. 
+De nombreux touristes viennent à Madagascar pour pouvoir observer ce phénomène.
 </t>
         </is>
       </c>
